--- a/BalanceSheet/TSN_bal.xlsx
+++ b/BalanceSheet/TSN_bal.xlsx
@@ -2298,19 +2298,19 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>17000000.0</v>
+        <v>2331000000.0</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>-9000000.0</v>
+        <v>2317000000.0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>-19000000.0</v>
+        <v>2370000000.0</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>43000000.0</v>
+        <v>2384000000.0</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>3000000.0</v>
+        <v>2369000000.0</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>2309000000.0</v>
